--- a/json/通告统计.xlsx
+++ b/json/通告统计.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\通告室\h5-bill-master\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE5CFA9-F445-4953-B3D1-D6032AB8A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC2086D-154F-46F5-8023-1215457226B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="处理量" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="处理量" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">处理量!$A$1:$P$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">处理量!$A$1:$P$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="21" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>李娜</t>
   </si>
@@ -167,6 +171,15 @@
   <si>
     <t>最黑的月（夜班遇到西北禁航通告最多的月）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值项:处理通告最多的数量</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -214,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,13 +250,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +292,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -283,6 +317,1815 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[通告统计.xlsx]Sheet1!数据透视表6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>曹百灿</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>曾崇</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>陈康</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>丁立鑫</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>窦振宗</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>段一凡</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>辜汝桐</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>何信远</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>胡中荷</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>黄俊贤</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>李娜</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>李鹉亨</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>吕锋</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>缪沁歧</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>潘宇超</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>瞿也丰</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>宋秋俊</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>王康健</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>王瑞琨</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>王亦强</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>王羽</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>王子众</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>谢思源</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>徐健昌</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>张泽楷</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53120243531202438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70167427701674279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88736681887366819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68797564687975643</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98934550989345504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52359208523592082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71537290715372903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82952815829528159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46879756468797562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67884322678843223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82800608828006084</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68493150684931503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72602739726027399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62709284627092843</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58599695585996958</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54185692541856922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDCF-48A9-A9A0-FA607C2C3D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1865595200"/>
+        <c:axId val="36376864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1865595200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36376864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36376864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865595200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20690EC7-7017-441A-BE46-E627147E3DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="青蛙" refreshedDate="44587.625933333336" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="25" xr:uid="{961982AB-4C96-4113-AD1C-DC3BD7550969}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:P26" sheet="处理量"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems count="25">
+        <s v="王羽"/>
+        <s v="曹百灿"/>
+        <s v="胡中荷"/>
+        <s v="缪沁歧"/>
+        <s v="段一凡"/>
+        <s v="何信远"/>
+        <s v="王子众"/>
+        <s v="陈康"/>
+        <s v="张泽楷"/>
+        <s v="李鹉亨"/>
+        <s v="宋秋俊"/>
+        <s v="李娜"/>
+        <s v="王康健"/>
+        <s v="辜汝桐"/>
+        <s v="王瑞琨"/>
+        <s v="王亦强"/>
+        <s v="丁立鑫"/>
+        <s v="谢思源"/>
+        <s v="窦振宗"/>
+        <s v="徐健昌"/>
+        <s v="潘宇超"/>
+        <s v="黄俊贤"/>
+        <s v="吕锋"/>
+        <s v="曾崇"/>
+        <s v="瞿也丰"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="工作分值比例" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.11173757047667862" maxValue="1"/>
+    </cacheField>
+    <cacheField name="工作分值" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="218" maxValue="1951"/>
+    </cacheField>
+    <cacheField name="出勤天数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27" maxValue="245"/>
+    </cacheField>
+    <cacheField name="夜班数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="67"/>
+    </cacheField>
+    <cacheField name="通宵" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="46"/>
+    </cacheField>
+    <cacheField name="通告处理量" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9032" maxValue="60342"/>
+    </cacheField>
+    <cacheField name="一级通告（机场跑道关闭、空域关闭）" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="846" maxValue="5326"/>
+    </cacheField>
+    <cacheField name="最黑的月（夜班遇到西北禁航通告最多的月）" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="12"/>
+    </cacheField>
+    <cacheField name="最黑的日子（夜班遇到西北禁航通告最多的一天）" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
+    </cacheField>
+    <cacheField name="最黑的仔（夜班遇到西北禁航通告最多的数目）" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="55"/>
+    </cacheField>
+    <cacheField name="最黑的仔" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
+    </cacheField>
+    <cacheField name="处理通告最多的月份" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="12"/>
+    </cacheField>
+    <cacheField name="处理通告最多的日期" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="31"/>
+    </cacheField>
+    <cacheField name="处理通告最多的数量" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="308" maxValue="657" count="18">
+        <m/>
+        <n v="356"/>
+        <n v="344"/>
+        <n v="446"/>
+        <n v="650"/>
+        <n v="544"/>
+        <n v="657"/>
+        <n v="450"/>
+        <n v="477"/>
+        <n v="461"/>
+        <n v="412"/>
+        <n v="583"/>
+        <n v="385"/>
+        <n v="545"/>
+        <n v="452"/>
+        <n v="470"/>
+        <n v="349"/>
+        <n v="308"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <x v="0"/>
+    <n v="0.11173757047667862"/>
+    <n v="218"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.15274218349564325"/>
+    <n v="298"/>
+    <n v="38"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.2009226037929267"/>
+    <n v="392"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.20604818042029729"/>
+    <n v="402"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.20656073808303435"/>
+    <n v="403"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.20707329574577141"/>
+    <n v="404"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.20707329574577141"/>
+    <n v="404"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.20707329574577141"/>
+    <n v="404"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.47462839569451565"/>
+    <n v="926"/>
+    <n v="112"/>
+    <n v="22"/>
+    <n v="15"/>
+    <n v="9032"/>
+    <n v="846"/>
+    <n v="11"/>
+    <n v="26"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.72321886212198871"/>
+    <n v="1411"/>
+    <n v="173"/>
+    <n v="39"/>
+    <n v="19"/>
+    <n v="29871"/>
+    <n v="3439"/>
+    <n v="7"/>
+    <n v="23"/>
+    <n v="43"/>
+    <n v="50"/>
+    <n v="5"/>
+    <n v="20"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.80522808815991798"/>
+    <n v="1571"/>
+    <n v="214"/>
+    <n v="54"/>
+    <n v="33"/>
+    <n v="56330"/>
+    <n v="4626"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="9"/>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.85955920041004608"/>
+    <n v="1677"/>
+    <n v="212"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="60342"/>
+    <n v="4173"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="9"/>
+    <n v="30"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.86724756535110203"/>
+    <n v="1692"/>
+    <n v="221"/>
+    <n v="57"/>
+    <n v="32"/>
+    <n v="43504"/>
+    <n v="3761"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="41"/>
+    <n v="50"/>
+    <n v="11"/>
+    <n v="30"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.88364941055868784"/>
+    <n v="1724"/>
+    <n v="225"/>
+    <n v="35"/>
+    <n v="15"/>
+    <n v="23351"/>
+    <n v="2774"/>
+    <n v="11"/>
+    <n v="23"/>
+    <n v="17"/>
+    <n v="50"/>
+    <n v="10"/>
+    <n v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.88928754484879546"/>
+    <n v="1735"/>
+    <n v="210"/>
+    <n v="57"/>
+    <n v="32"/>
+    <n v="39103"/>
+    <n v="4314"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="31"/>
+    <n v="50"/>
+    <n v="4"/>
+    <n v="21"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.89185033316248075"/>
+    <n v="1740"/>
+    <n v="224"/>
+    <n v="34"/>
+    <n v="16"/>
+    <n v="21328"/>
+    <n v="2624"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="45"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="17"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.89441312147616603"/>
+    <n v="1745"/>
+    <n v="224"/>
+    <n v="34"/>
+    <n v="16"/>
+    <n v="20732"/>
+    <n v="2310"/>
+    <n v="7"/>
+    <n v="29"/>
+    <n v="55"/>
+    <n v="100"/>
+    <n v="11"/>
+    <n v="30"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0.89851358277806248"/>
+    <n v="1753"/>
+    <n v="216"/>
+    <n v="53"/>
+    <n v="24"/>
+    <n v="49122"/>
+    <n v="5217"/>
+    <n v="7"/>
+    <n v="19"/>
+    <n v="49"/>
+    <n v="50"/>
+    <n v="7"/>
+    <n v="31"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0.93798052280881594"/>
+    <n v="1830"/>
+    <n v="228"/>
+    <n v="57"/>
+    <n v="32"/>
+    <n v="43228"/>
+    <n v="5326"/>
+    <n v="4"/>
+    <n v="26"/>
+    <n v="34"/>
+    <n v="50"/>
+    <n v="4"/>
+    <n v="22"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0.94823167606355718"/>
+    <n v="1850"/>
+    <n v="224"/>
+    <n v="34"/>
+    <n v="16"/>
+    <n v="40343"/>
+    <n v="4403"/>
+    <n v="7"/>
+    <n v="16"/>
+    <n v="37"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="19"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0.96617119425935416"/>
+    <n v="1885"/>
+    <n v="231"/>
+    <n v="63"/>
+    <n v="33"/>
+    <n v="32173"/>
+    <n v="3992"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="35"/>
+    <n v="50"/>
+    <n v="10"/>
+    <n v="7"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0.97488467452588412"/>
+    <n v="1902"/>
+    <n v="233"/>
+    <n v="54"/>
+    <n v="33"/>
+    <n v="28119"/>
+    <n v="3224"/>
+    <n v="5"/>
+    <n v="30"/>
+    <n v="35"/>
+    <n v="50"/>
+    <n v="9"/>
+    <n v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0.98257303946694008"/>
+    <n v="1917"/>
+    <n v="236"/>
+    <n v="67"/>
+    <n v="46"/>
+    <n v="36268"/>
+    <n v="4567"/>
+    <n v="9"/>
+    <n v="23"/>
+    <n v="29"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="7"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0.98462327011788831"/>
+    <n v="1921"/>
+    <n v="245"/>
+    <n v="45"/>
+    <n v="25"/>
+    <n v="26298"/>
+    <n v="2984"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="42"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="4"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="1951"/>
+    <n v="235"/>
+    <n v="44"/>
+    <n v="41"/>
+    <n v="19326"/>
+    <n v="2745"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="34"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="19"/>
+    <x v="17"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14F87D19-5D4F-4589-996B-31182AB7EFCC}" name="数据透视表6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="1"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="最大值项:处理通告最多的数量" fld="14" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,11 +2385,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032AADB7-B896-4331-A211-6FE8BCCA0781}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.53120243531202438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.70167427701674279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.88736681887366819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.68797564687975643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.98934550989345504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.52359208523592082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.71537290715372903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.82952815829528159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.46879756468797562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.67884322678843223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.82800608828006084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.68493150684931503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.72602739726027399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.62709284627092843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.58599695585996958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.54185692541856922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -554,14 +2634,15 @@
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="5" max="6" width="15.21875" customWidth="1"/>
     <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="12" width="37.88671875" customWidth="1"/>
-    <col min="13" max="13" width="39.109375" customWidth="1"/>
+    <col min="10" max="11" width="37.88671875" customWidth="1"/>
+    <col min="12" max="12" width="26.5546875" customWidth="1"/>
+    <col min="13" max="13" width="27.21875" customWidth="1"/>
     <col min="14" max="14" width="29.77734375" customWidth="1"/>
     <col min="15" max="15" width="29.88671875" customWidth="1"/>
     <col min="16" max="16" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -610,8 +2691,9 @@
       <c r="P1" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>228234</v>
       </c>
@@ -645,7 +2727,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>252127</v>
       </c>
@@ -679,7 +2761,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>281217</v>
       </c>
@@ -713,7 +2795,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>279462</v>
       </c>
@@ -747,7 +2829,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>279458</v>
       </c>
@@ -781,7 +2863,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>279461</v>
       </c>
@@ -815,7 +2897,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>281215</v>
       </c>
@@ -849,7 +2931,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>281216</v>
       </c>
@@ -883,7 +2965,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>253439</v>
       </c>
@@ -932,8 +3014,9 @@
       <c r="P10" s="1">
         <v>356</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>240586</v>
       </c>
@@ -982,8 +3065,9 @@
       <c r="P11" s="1">
         <v>344</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>202747</v>
       </c>
@@ -1026,8 +3110,9 @@
       <c r="P12" s="1">
         <v>446</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>192374</v>
       </c>
@@ -1070,8 +3155,9 @@
       <c r="P13" s="1">
         <v>650</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>240587</v>
       </c>
@@ -1120,8 +3206,9 @@
       <c r="P14" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>276396</v>
       </c>
@@ -1170,8 +3257,9 @@
       <c r="P15" s="1">
         <v>657</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>209433</v>
       </c>
@@ -1220,8 +3308,9 @@
       <c r="P16" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>276394</v>
       </c>
@@ -1270,8 +3359,9 @@
       <c r="P17" s="1">
         <v>477</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>276392</v>
       </c>
@@ -1320,8 +3410,9 @@
       <c r="P18" s="1">
         <v>461</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>264677</v>
       </c>
@@ -1370,8 +3461,9 @@
       <c r="P19" s="1">
         <v>412</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>264674</v>
       </c>
@@ -1420,8 +3512,9 @@
       <c r="P20" s="1">
         <v>583</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>252190</v>
       </c>
@@ -1470,8 +3563,9 @@
       <c r="P21" s="1">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>228240</v>
       </c>
@@ -1520,8 +3614,9 @@
       <c r="P22" s="1">
         <v>545</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>252164</v>
       </c>
@@ -1570,8 +3665,9 @@
       <c r="P23" s="1">
         <v>452</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>264694</v>
       </c>
@@ -1620,8 +3716,9 @@
       <c r="P24" s="1">
         <v>470</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>252174</v>
       </c>
@@ -1670,8 +3767,9 @@
       <c r="P25" s="1">
         <v>349</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240595</v>
       </c>
@@ -1720,6 +3818,7 @@
       <c r="P26" s="1">
         <v>308</v>
       </c>
+      <c r="Q26" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P26" xr:uid="{00000000-0001-0000-0100-000000000000}">
